--- a/docs/Decodifiche/105_dec_canale_com_notifica.xlsx
+++ b/docs/Decodifiche/105_dec_canale_com_notifica.xlsx
@@ -32,7 +32,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>PEC</t>
+    <t>DIGITALE</t>
   </si>
   <si>
     <t>2000-01-01 00:00:00.0</t>
@@ -44,7 +44,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>DIGITALE</t>
+    <t>PEC</t>
   </si>
   <si>
     <t>2</t>
